--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P04_trail9 Features.xlsx
@@ -3162,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3173,29 +3173,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="21" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3216,115 +3214,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3341,72 +3329,66 @@
         <v>1.026093551325257e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.8425900174641974</v>
+        <v>5.63013860262968e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.6645931304752639</v>
+        <v>4.178722886366287e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>5.63013860262968e-07</v>
+        <v>0.08903040983288867</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.178722886366287e-06</v>
+        <v>0.2820493410318655</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.08903040983288867</v>
+        <v>0.08732948609243023</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2820493410318655</v>
+        <v>1.534743787879046</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.08732948609243023</v>
+        <v>1.212837059484783</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.535377095498555</v>
+        <v>27.3836972966047</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.212837059484783</v>
+        <v>3.514410688716387e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>27.3836972966047</v>
+        <v>249884771.3909319</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.514410688716387e-14</v>
+        <v>4.25435263839673e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>249884771.3909319</v>
+        <v>2194.482343801499</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.25435263839673e-07</v>
+        <v>4.607745687866385e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2194.482343801499</v>
+        <v>9.081350310480135</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>4.607745687866385e-05</v>
+        <v>1.520180710556846</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.081350310480135</v>
+        <v>0.003800050419548116</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.520180710556846</v>
+        <v>6.408385461199297</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003800050419548116</v>
+        <v>0.9291973376392549</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>6.408385461199297</v>
+        <v>0.9992396240511356</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9291973376392549</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9992396240511356</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>4.951133653404044</v>
       </c>
     </row>
@@ -3421,72 +3403,66 @@
         <v>9.359557044112821e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.4347302310204803</v>
+        <v>4.243912461784227e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.9150015399208762</v>
+        <v>4.18679862416673e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.243912461784227e-07</v>
+        <v>0.07566455931126106</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.18679862416673e-06</v>
+        <v>0.2457434459815299</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.07566455931126106</v>
+        <v>0.06598784211370215</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2457434459815299</v>
+        <v>1.527762247169412</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.06598784211370215</v>
+        <v>1.213525140715492</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.526727593940335</v>
+        <v>27.30069157117092</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.213525140715492</v>
+        <v>3.535813786045453e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>27.30069157117092</v>
+        <v>248374753.4597923</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.535813786045453e-14</v>
+        <v>4.280171236179645e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>248374753.4597923</v>
+        <v>2181.244166581308</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.280171236179645e-07</v>
+        <v>4.0490264449988e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2181.244166581308</v>
+        <v>9.375745893366629</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>4.0490264449988e-05</v>
+        <v>1.525075518720855</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.375745893366629</v>
+        <v>0.003559280948070508</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.525075518720855</v>
+        <v>6.774318755381704</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.003559280948070508</v>
+        <v>0.9257821769563866</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.774318755381704</v>
+        <v>1.074796254266286</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9257821769563866</v>
+        <v>10</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.074796254266286</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>5.793541338015197</v>
       </c>
     </row>
@@ -3501,72 +3477,66 @@
         <v>9.073012163699617e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.3397375192592643</v>
+        <v>3.283151688985553e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.160302771076531</v>
+        <v>4.193024115972804e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.283151688985553e-07</v>
+        <v>0.06038136767160739</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.193024115972804e-06</v>
+        <v>0.2038574349645441</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.06038136767160739</v>
+        <v>0.04513102717013002</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2038574349645441</v>
+        <v>1.528748255700303</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04513102717013002</v>
+        <v>1.20947593072772</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.52700408180776</v>
+        <v>27.28898393804933</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.20947593072772</v>
+        <v>3.538848335857303e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>27.28898393804933</v>
+        <v>248161267.1203636</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.538848335857303e-14</v>
+        <v>4.28386725306638e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>248161267.1203636</v>
+        <v>2179.364872244354</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.28386725306638e-07</v>
+        <v>3.325491239987014e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2179.364872244354</v>
+        <v>9.049046220371141</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.325491239987014e-05</v>
+        <v>1.552231556035313</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.049046220371141</v>
+        <v>0.002723086399852294</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.552231556035313</v>
+        <v>7.048238742349244</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002723086399852294</v>
+        <v>0.9262245678822214</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.048238742349244</v>
+        <v>1.092086618457795</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9262245678822214</v>
+        <v>18</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.092086618457795</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>6.418057408934751</v>
       </c>
     </row>
@@ -3581,72 +3551,66 @@
         <v>9.116963501898864e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.3477735972816076</v>
+        <v>3.310784322212812e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.079229612230383</v>
+        <v>4.197945474238717e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.310784322212812e-07</v>
+        <v>0.04938056318085055</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.197945474238717e-06</v>
+        <v>0.1760587223451971</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.04938056318085055</v>
+        <v>0.03340839830720396</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1760587223451971</v>
+        <v>1.52566497829294</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03340839830720396</v>
+        <v>1.207863271512047</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.523596227205128</v>
+        <v>27.29486566702267</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.207863271512047</v>
+        <v>3.537323338123614e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>27.29486566702267</v>
+        <v>248268586.0553842</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.537323338123614e-14</v>
+        <v>4.282011644345916e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>248268586.0553842</v>
+        <v>2180.310273231598</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.282011644345916e-07</v>
+        <v>3.36212371679538e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2180.310273231598</v>
+        <v>8.671893860524291</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>3.36212371679538e-05</v>
+        <v>1.578099569641453</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.671893860524291</v>
+        <v>0.002528375641156714</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.578099569641453</v>
+        <v>6.939072395425209</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002528375641156714</v>
+        <v>0.9258975886361031</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>6.939072395425209</v>
+        <v>1.03152742591646</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9258975886361031</v>
+        <v>18</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.03152742591646</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>6.211706308545915</v>
       </c>
     </row>
@@ -3661,72 +3625,66 @@
         <v>9.310683005292836e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.3442565513825487</v>
+        <v>3.488627014031117e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.9944140829735479</v>
+        <v>4.202275392208169e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.488627014031117e-07</v>
+        <v>0.04566339813061146</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.202275392208169e-06</v>
+        <v>0.16803015693005</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04566339813061146</v>
+        <v>0.03031768975686465</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.16803015693005</v>
+        <v>1.512969777321558</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03031768975686465</v>
+        <v>1.206141850307245</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.509381601596352</v>
+        <v>27.13054259096128</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.206141850307245</v>
+        <v>3.580302510887661e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>27.13054259096128</v>
+        <v>245296879.0900393</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>3.580302510887661e-14</v>
+        <v>4.33376175227383e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>245296879.0900393</v>
+        <v>2154.28803080083</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.33376175227383e-07</v>
+        <v>4.228977096860211e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2154.28803080083</v>
+        <v>8.32364752967297</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>4.228977096860211e-05</v>
+        <v>1.584888238631344</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.32364752967297</v>
+        <v>0.002929966777696066</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.584888238631344</v>
+        <v>6.458599537522301</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.002929966777696066</v>
+        <v>0.9183341917320363</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>6.458599537522301</v>
+        <v>1.005446752743277</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9183341917320363</v>
+        <v>19</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.005446752743277</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>5.110230430788944</v>
       </c>
     </row>
@@ -3741,72 +3699,66 @@
         <v>9.532617029717817e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.3356703455869457</v>
+        <v>3.517520823012881e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9253765068990427</v>
+        <v>4.206547056755579e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.517520823012881e-07</v>
+        <v>0.04536140555382372</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.206547056755579e-06</v>
+        <v>0.1636897584714201</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04536140555382372</v>
+        <v>0.0288509414526389</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1636897584714201</v>
+        <v>1.52227792291139</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0288509414526389</v>
+        <v>1.217309135211935</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.52074465523594</v>
+        <v>27.11314602567985</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.217309135211935</v>
+        <v>3.584898432600433e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>27.11314602567985</v>
+        <v>244974000.8787239</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.584898432600433e-14</v>
+        <v>4.339615677271607e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>244974000.8787239</v>
+        <v>2151.378607776039</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.339615677271607e-07</v>
+        <v>6.070338752530033e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2151.378607776039</v>
+        <v>8.238545675834798</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>6.070338752530033e-05</v>
+        <v>1.637680376337905</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.238545675834798</v>
+        <v>0.004120159559221235</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.637680376337905</v>
+        <v>5.634883563426504</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004120159559221235</v>
+        <v>0.9258084103769646</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>5.634883563426504</v>
+        <v>1.066700377634257</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9258084103769646</v>
+        <v>18</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.066700377634257</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>3.369641811680346</v>
       </c>
     </row>
@@ -4183,7 +4135,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.178374814486139</v>
+        <v>1.143425216172466</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.205049428131086</v>
@@ -4272,7 +4224,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.184400530888676</v>
+        <v>1.144573722565663</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.099235092872068</v>
@@ -4361,7 +4313,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.18893677152726</v>
+        <v>1.153848801430937</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.140174927629984</v>
@@ -4450,7 +4402,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.197379176386729</v>
+        <v>1.163651020308291</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.434876666349282</v>
@@ -4539,7 +4491,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.200842414396599</v>
+        <v>1.167544122448413</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.257399916207751</v>
@@ -4628,7 +4580,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.199748778981489</v>
+        <v>1.164968337016068</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.256163339432046</v>
@@ -4717,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.20406354832459</v>
+        <v>1.171332600359922</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.229141659200761</v>
@@ -4806,7 +4758,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.202220303051613</v>
+        <v>1.17023969942214</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.399365538841717</v>
@@ -4895,7 +4847,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.203584813886335</v>
+        <v>1.170355957026586</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.199429175179211</v>
@@ -4984,7 +4936,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.212550172804937</v>
+        <v>1.181415714851499</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.149378591341623</v>
@@ -5073,7 +5025,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.230474207321292</v>
+        <v>1.203592555746662</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.160315936668486</v>
@@ -5162,7 +5114,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.23309686236476</v>
+        <v>1.20546053368268</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.183090329355186</v>
@@ -5251,7 +5203,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.24381725875926</v>
+        <v>1.216760897760812</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.247789635436418</v>
@@ -5340,7 +5292,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.247423748815251</v>
+        <v>1.224747318782501</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.202454600647661</v>
@@ -5429,7 +5381,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.255604289846271</v>
+        <v>1.229843340480623</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.148214694493464</v>
@@ -5518,7 +5470,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.270178186223477</v>
+        <v>1.243975450830996</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.076036870050616</v>
@@ -5607,7 +5559,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.292605415453873</v>
+        <v>1.266152620094207</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.163262991255025</v>
@@ -5696,7 +5648,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.317265735779</v>
+        <v>1.293480920738485</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.205132745583539</v>
@@ -5785,7 +5737,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.336014433666493</v>
+        <v>1.31042892898881</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.147706370033401</v>
@@ -5874,7 +5826,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.336708643098951</v>
+        <v>1.31576461304962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.069030505745284</v>
@@ -5963,7 +5915,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.362677319656706</v>
+        <v>1.344716261975815</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.107629944062988</v>
@@ -6052,7 +6004,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.370575167885201</v>
+        <v>1.353321954380008</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.066171491670465</v>
@@ -6141,7 +6093,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.381819555866127</v>
+        <v>1.365448126158202</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.415936150074079</v>
@@ -6230,7 +6182,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.39009928601175</v>
+        <v>1.374446213821076</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.159263552795267</v>
@@ -6319,7 +6271,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.391885802517169</v>
+        <v>1.374970583144799</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.206421982904351</v>
@@ -6408,7 +6360,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.392244699448815</v>
+        <v>1.37828393461194</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.153742611589379</v>
@@ -6497,7 +6449,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.413896106333854</v>
+        <v>1.403731567359254</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.249320897426928</v>
@@ -6586,7 +6538,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.427798307044657</v>
+        <v>1.422092555970573</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.162548495173342</v>
@@ -6675,7 +6627,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.428339901617792</v>
+        <v>1.421400216824684</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.241183005295807</v>
@@ -6764,7 +6716,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.45065300364017</v>
+        <v>1.446260625943086</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.331907952306334</v>
@@ -6853,7 +6805,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.436522524199435</v>
+        <v>1.433398847387589</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.289624474481224</v>
@@ -6942,7 +6894,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.434857027088724</v>
+        <v>1.425750679213414</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.274707960998402</v>
@@ -7031,7 +6983,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.420862709171478</v>
+        <v>1.417298310988526</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.229846740398878</v>
@@ -7120,7 +7072,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.434569973809827</v>
+        <v>1.430126416088931</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.284468405963861</v>
@@ -7209,7 +7161,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.462899719720064</v>
+        <v>1.462261128282925</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.393806293627507</v>
@@ -7298,7 +7250,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.499288028201758</v>
+        <v>1.502538355536044</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.416037606780152</v>
@@ -7387,7 +7339,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.538169919595858</v>
+        <v>1.54208907237622</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.375241530123036</v>
@@ -7476,7 +7428,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.567045320298275</v>
+        <v>1.576446347109938</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.363250798424663</v>
@@ -7565,7 +7517,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.588679504668384</v>
+        <v>1.602082681666436</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.449789237720167</v>
@@ -7654,7 +7606,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.602633967806464</v>
+        <v>1.618930214213063</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.559188146413611</v>
@@ -7743,7 +7695,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.607522423480133</v>
+        <v>1.624132440363887</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.501288624096775</v>
@@ -7832,7 +7784,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.613981914044045</v>
+        <v>1.629012245751538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.532463956250726</v>
@@ -7921,7 +7873,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.632941257752167</v>
+        <v>1.648432231755248</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.468830592792338</v>
@@ -8010,7 +7962,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667852615078101</v>
+        <v>1.685494025795279</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.40124567856592</v>
@@ -8099,7 +8051,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.678271592253033</v>
+        <v>1.698914057654678</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.684716886590097</v>
@@ -8188,7 +8140,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.713914590008419</v>
+        <v>1.736706862088305</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.518185528228291</v>
@@ -8277,7 +8229,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732347297498201</v>
+        <v>1.748604540550607</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.568773609139775</v>
@@ -8366,7 +8318,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.709473496594801</v>
+        <v>1.736646907305727</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.759895309649273</v>
@@ -8455,7 +8407,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.724282576935203</v>
+        <v>1.754433839446754</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.941301561893385</v>
@@ -8544,7 +8496,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.733215905377479</v>
+        <v>1.758571870839972</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.955356962641477</v>
@@ -8633,7 +8585,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.726662368937374</v>
+        <v>1.747549791826475</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.058320127309519</v>
@@ -8919,7 +8871,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.422026992383365</v>
+        <v>1.436206085134969</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.158558038999017</v>
@@ -9008,7 +8960,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.422530209442177</v>
+        <v>1.436173709579303</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.131382093183998</v>
@@ -9097,7 +9049,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.46819424507195</v>
+        <v>1.477010655104269</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.466487385689269</v>
@@ -9186,7 +9138,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.475789487131338</v>
+        <v>1.484618818479212</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.450416213535717</v>
@@ -9275,7 +9227,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493720568263472</v>
+        <v>1.502364449163365</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.43555027696451</v>
@@ -9364,7 +9316,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.494503749610762</v>
+        <v>1.502027730948515</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.411276804842135</v>
@@ -9453,7 +9405,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.500336622690347</v>
+        <v>1.510957199421906</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.451119635109334</v>
@@ -9542,7 +9494,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.498728587663857</v>
+        <v>1.509354075670269</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.388328021285952</v>
@@ -9631,7 +9583,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.506259193456256</v>
+        <v>1.515563469493372</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.471767190657259</v>
@@ -9720,7 +9672,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.528511444533544</v>
+        <v>1.537713396087782</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.331906838499244</v>
@@ -9809,7 +9761,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565790469864952</v>
+        <v>1.573424001835661</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.275585823863705</v>
@@ -9898,7 +9850,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593148351653935</v>
+        <v>1.606684506923586</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.508601418578392</v>
@@ -9987,7 +9939,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592808110774464</v>
+        <v>1.612430097991807</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.528944366812513</v>
@@ -10076,7 +10028,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.609880985180793</v>
+        <v>1.631853610891908</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.528726556800733</v>
@@ -10165,7 +10117,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.621369059791678</v>
+        <v>1.634449478105618</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.375240386606733</v>
@@ -10254,7 +10206,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.653036090401155</v>
+        <v>1.664190722309364</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.830306351951331</v>
@@ -10343,7 +10295,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.687150512628621</v>
+        <v>1.695907573570038</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.935145368835209</v>
@@ -10432,7 +10384,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.713945547286191</v>
+        <v>1.720402712337943</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.916813579322584</v>
@@ -10521,7 +10473,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.727443792831394</v>
+        <v>1.736042037696269</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.168347262573599</v>
@@ -10610,7 +10562,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.69964021731958</v>
+        <v>1.711900076563721</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.012255693324062</v>
@@ -10699,7 +10651,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.692971886677609</v>
+        <v>1.705688120283461</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.745579580611116</v>
@@ -10788,7 +10740,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.68493789397076</v>
+        <v>1.699417435684385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.696275001619338</v>
@@ -10877,7 +10829,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.689943094742319</v>
+        <v>1.706656462954029</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.107901001896967</v>
@@ -10966,7 +10918,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.702521911893267</v>
+        <v>1.719851616409821</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.928755491686376</v>
@@ -11055,7 +11007,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.683264330608729</v>
+        <v>1.700245919763327</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.022243226183051</v>
@@ -11144,7 +11096,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.679145221536038</v>
+        <v>1.695018629821446</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.976347211473998</v>
@@ -11233,7 +11185,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.676540228997168</v>
+        <v>1.697738303792824</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.030557744700313</v>
@@ -11322,7 +11274,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.692180981781009</v>
+        <v>1.715288956659033</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.874651270131646</v>
@@ -11411,7 +11363,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.701928665587837</v>
+        <v>1.727912476084218</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.08950203137907</v>
@@ -11500,7 +11452,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.728377666809385</v>
+        <v>1.7542708180951</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.2381599888691</v>
@@ -11589,7 +11541,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.729828564030248</v>
+        <v>1.755477525271501</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.305046611816025</v>
@@ -11678,7 +11630,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.726815484150024</v>
+        <v>1.752757645439899</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.240645669768982</v>
@@ -11767,7 +11719,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.727594772186376</v>
+        <v>1.755892759002837</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.883090836451971</v>
@@ -11856,7 +11808,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.739767870295372</v>
+        <v>1.76968803278385</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.28403297321838</v>
@@ -11945,7 +11897,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.773850996257343</v>
+        <v>1.805403844954304</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.151717235448515</v>
@@ -12034,7 +11986,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.791576099477572</v>
+        <v>1.826103286995016</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.479317135277358</v>
@@ -12123,7 +12075,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.815172591492314</v>
+        <v>1.850825267784226</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.777329477469467</v>
@@ -12212,7 +12164,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.834015566742911</v>
+        <v>1.86905017693391</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.808560177597145</v>
@@ -12301,7 +12253,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.838180425412313</v>
+        <v>1.874429138029549</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.946913209348748</v>
@@ -12390,7 +12342,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.86547466682361</v>
+        <v>1.900004784657634</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.12725649867427</v>
@@ -12479,7 +12431,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.88331291270327</v>
+        <v>1.915282561657274</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.091419305552265</v>
@@ -12568,7 +12520,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.905091421740035</v>
+        <v>1.932207863311421</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.949909427325339</v>
@@ -12657,7 +12609,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.918288821470044</v>
+        <v>1.941670325669024</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.482127972099314</v>
@@ -12746,7 +12698,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.927164777403438</v>
+        <v>1.949660707230866</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.278344582059792</v>
@@ -12835,7 +12787,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.927460446460634</v>
+        <v>1.94905397781725</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.688448382198342</v>
@@ -12924,7 +12876,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.936442166190846</v>
+        <v>1.9602357577917</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.700939822567674</v>
@@ -13013,7 +12965,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.940290135547817</v>
+        <v>1.963049288236591</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.050666287260724</v>
@@ -13102,7 +13054,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.940400358624071</v>
+        <v>1.964983459503729</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.567289920765742</v>
@@ -13191,7 +13143,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.943895512400677</v>
+        <v>1.971106603011859</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.304831041794608</v>
@@ -13280,7 +13232,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.942944494637441</v>
+        <v>1.968674818311435</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.330640468710795</v>
@@ -13369,7 +13321,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.952040562628371</v>
+        <v>1.972672332417617</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.00415460265602</v>
@@ -13655,7 +13607,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.410292090911837</v>
+        <v>1.416996382067391</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.933433987607502</v>
@@ -13744,7 +13696,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.403552952232087</v>
+        <v>1.406618326375871</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.018674522553167</v>
@@ -13833,7 +13785,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.476624919917439</v>
+        <v>1.469508854102314</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.241191058570388</v>
@@ -13922,7 +13874,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.478641917338977</v>
+        <v>1.465059593381042</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.154546152686504</v>
@@ -14011,7 +13963,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.480193783067648</v>
+        <v>1.466427687804087</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.192490061576168</v>
@@ -14100,7 +14052,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.467772918532747</v>
+        <v>1.452115013680445</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.15508581526779</v>
@@ -14189,7 +14141,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.477646311291629</v>
+        <v>1.460650916317854</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.214361652192018</v>
@@ -14278,7 +14230,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.476172024195741</v>
+        <v>1.456073366927448</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.168382819045067</v>
@@ -14367,7 +14319,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.478951627590552</v>
+        <v>1.457609263252649</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.129626462411478</v>
@@ -14456,7 +14408,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.487258790515677</v>
+        <v>1.465153678218219</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.256097341869406</v>
@@ -14545,7 +14497,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.50296584982669</v>
+        <v>1.482236861736942</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.257651665922663</v>
@@ -14634,7 +14586,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.504965316295455</v>
+        <v>1.488773076841971</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.18225843802912</v>
@@ -14723,7 +14675,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.504855948134853</v>
+        <v>1.494250935846023</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.194162917428116</v>
@@ -14812,7 +14764,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.512169234714831</v>
+        <v>1.504794828547202</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.227209649427743</v>
@@ -14901,7 +14853,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.5712217469682</v>
+        <v>1.542879391250296</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.17985670862594</v>
@@ -14990,7 +14942,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.607624440428775</v>
+        <v>1.573874561140642</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.901735779768689</v>
@@ -15079,7 +15031,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.610547870063928</v>
+        <v>1.57722057867849</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.443403624614739</v>
@@ -15168,7 +15120,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.62108708898514</v>
+        <v>1.588591278366163</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.258788019416276</v>
@@ -15257,7 +15209,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.627252937016193</v>
+        <v>1.593640790939094</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.474629460715734</v>
@@ -15346,7 +15298,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.621260128421648</v>
+        <v>1.593195042836873</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.971933232956743</v>
@@ -15435,7 +15387,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.636384646082505</v>
+        <v>1.604269697469528</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.937424018546948</v>
@@ -15524,7 +15476,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.628086817872164</v>
+        <v>1.599450763114385</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.07232433052652</v>
@@ -15613,7 +15565,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626818399715296</v>
+        <v>1.601112998126431</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.246408766499574</v>
@@ -15702,7 +15654,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.624593576825019</v>
+        <v>1.599564836829246</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.148290058396012</v>
@@ -15791,7 +15743,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.630253384741218</v>
+        <v>1.60559762175969</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.207035932111876</v>
@@ -15880,7 +15832,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.62429290221382</v>
+        <v>1.595234471109999</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.059262982002738</v>
@@ -15969,7 +15921,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.633683474324463</v>
+        <v>1.602647504547943</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.909895899613774</v>
@@ -16058,7 +16010,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.644950175473959</v>
+        <v>1.614305112962234</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.248123088267443</v>
@@ -16147,7 +16099,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.649942764251023</v>
+        <v>1.625253180305929</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.463550235814378</v>
@@ -16236,7 +16188,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.654522783431206</v>
+        <v>1.634607164479052</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.422492775855105</v>
@@ -16325,7 +16277,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.649330824231978</v>
+        <v>1.630405357333363</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.126966335897819</v>
@@ -16414,7 +16366,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.648080754021708</v>
+        <v>1.6253207849407</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.481021282068771</v>
@@ -16503,7 +16455,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.633569685329178</v>
+        <v>1.612327575098824</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.394849151226606</v>
@@ -16592,7 +16544,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.644196014702617</v>
+        <v>1.621031339680707</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.221662832733135</v>
@@ -16681,7 +16633,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.658595951311366</v>
+        <v>1.638065555008236</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.757007286171129</v>
@@ -16770,7 +16722,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.683643572762713</v>
+        <v>1.670699744597388</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.834039019684774</v>
@@ -16859,7 +16811,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.711677696221531</v>
+        <v>1.703128760118027</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.74645353234056</v>
@@ -16948,7 +16900,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.726709141647423</v>
+        <v>1.720559490828213</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.019776090715382</v>
@@ -17037,7 +16989,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.746318261186073</v>
+        <v>1.745084530188072</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.820964183043553</v>
@@ -17126,7 +17078,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.756302921594768</v>
+        <v>1.75671476431254</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.108790104916062</v>
@@ -17215,7 +17167,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.762057093549126</v>
+        <v>1.765290358034462</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.161772637447269</v>
@@ -17304,7 +17256,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.768746590390511</v>
+        <v>1.773591467809129</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.306900454567313</v>
@@ -17393,7 +17345,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.791358442460635</v>
+        <v>1.796980846408835</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.256280465095296</v>
@@ -17482,7 +17434,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.795263299211</v>
+        <v>1.80150048924259</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.155992149007288</v>
@@ -17571,7 +17523,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.796766738507624</v>
+        <v>1.805705388601419</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.303110916308185</v>
@@ -17660,7 +17612,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.805002895931537</v>
+        <v>1.815347626735986</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.002013744525731</v>
@@ -17749,7 +17701,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.812967090842265</v>
+        <v>1.82643744830213</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.178372570509312</v>
@@ -17838,7 +17790,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.82137947820205</v>
+        <v>1.830937447631682</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.52688667773886</v>
@@ -17927,7 +17879,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.825098305245225</v>
+        <v>1.838154350395002</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.95621677945213</v>
@@ -18016,7 +17968,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.827904852599707</v>
+        <v>1.839835180773076</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.258100817127128</v>
@@ -18105,7 +18057,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.82321914679507</v>
+        <v>1.838330604663547</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.863608523668483</v>
@@ -18391,7 +18343,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.552745791974639</v>
+        <v>1.565137973402268</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.215697751838529</v>
@@ -18480,7 +18432,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.549038949239212</v>
+        <v>1.562719004996572</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.292872854961846</v>
@@ -18569,7 +18521,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.607466747901515</v>
+        <v>1.610800835825769</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.447376167846875</v>
@@ -18658,7 +18610,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.605894885488384</v>
+        <v>1.611199884855848</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.601663135810798</v>
@@ -18747,7 +18699,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.601953039728464</v>
+        <v>1.610188321143511</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.568746365999484</v>
@@ -18836,7 +18788,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.587331841234148</v>
+        <v>1.592870894124567</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.483968087707315</v>
@@ -18925,7 +18877,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.598534336202989</v>
+        <v>1.601220170844579</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.475503981540474</v>
@@ -19014,7 +18966,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.599991771661804</v>
+        <v>1.597838107911858</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.601906757359134</v>
@@ -19103,7 +19055,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.603017202427063</v>
+        <v>1.600461954967375</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.529608627238856</v>
@@ -19192,7 +19144,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.601619407726262</v>
+        <v>1.598182293606314</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.393159187068755</v>
@@ -19281,7 +19233,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.596765172693081</v>
+        <v>1.592678283711842</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.511050460689945</v>
@@ -19370,7 +19322,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.587994717849384</v>
+        <v>1.583624367729533</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.536954782484476</v>
@@ -19459,7 +19411,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.570377991256004</v>
+        <v>1.57985714030806</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.5029037609753</v>
@@ -19548,7 +19500,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569044900214906</v>
+        <v>1.578512598792247</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.567515134783399</v>
@@ -19637,7 +19589,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.58253012912447</v>
+        <v>1.579882510437289</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.60090113614879</v>
@@ -19726,7 +19678,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.596832821130875</v>
+        <v>1.590624654677891</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.941327436929555</v>
@@ -19815,7 +19767,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593678201532047</v>
+        <v>1.584919910076037</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.1550878528868</v>
@@ -19904,7 +19856,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.597135242388972</v>
+        <v>1.584604923592013</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.790423234513195</v>
@@ -19993,7 +19945,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.601328974582007</v>
+        <v>1.587269455900366</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.933564862137991</v>
@@ -20082,7 +20034,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.590058802209641</v>
+        <v>1.575789108404991</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.004225450626942</v>
@@ -20171,7 +20123,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.60333921536593</v>
+        <v>1.586546768854614</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.017936436186558</v>
@@ -20260,7 +20212,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.612169754981341</v>
+        <v>1.597698936066466</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.238418539351262</v>
@@ -20349,7 +20301,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.620085694066238</v>
+        <v>1.60927239473127</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.350155153706039</v>
@@ -20438,7 +20390,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.616271830131693</v>
+        <v>1.604829624505101</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.137914937707199</v>
@@ -20527,7 +20479,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.605889852041268</v>
+        <v>1.593226860434567</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.199503828635739</v>
@@ -20616,7 +20568,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.602250408949227</v>
+        <v>1.591903628486245</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.941059149578832</v>
@@ -20705,7 +20657,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.611147632120813</v>
+        <v>1.601577170378869</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.997180083758287</v>
@@ -20794,7 +20746,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.62856554773517</v>
+        <v>1.614539186808133</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.462438335888073</v>
@@ -20883,7 +20835,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.630984107534822</v>
+        <v>1.61310649011339</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.120804660459144</v>
@@ -20972,7 +20924,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.62830938894249</v>
+        <v>1.612085266892174</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.126406571257428</v>
@@ -21061,7 +21013,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630644619941567</v>
+        <v>1.615122371863208</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.474120581850349</v>
@@ -21150,7 +21102,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.632722401998382</v>
+        <v>1.623164501856131</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.474899405311915</v>
@@ -21239,7 +21191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.636286702590102</v>
+        <v>1.623582175802659</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.544418266845037</v>
@@ -21328,7 +21280,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.639625848425491</v>
+        <v>1.624362464752214</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.333975248864661</v>
@@ -21417,7 +21369,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.667082782961076</v>
+        <v>1.645676486387097</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.371892124056866</v>
@@ -21506,7 +21458,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.696151503145152</v>
+        <v>1.672415392418916</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.249946898729775</v>
@@ -21595,7 +21547,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.694140705636607</v>
+        <v>1.665274748846561</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.279057837888817</v>
@@ -21684,7 +21636,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.696077382281583</v>
+        <v>1.671484909404264</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.056349316546325</v>
@@ -21773,7 +21725,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.718462255853178</v>
+        <v>1.695764313914487</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.408875013022939</v>
@@ -21862,7 +21814,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.74260618618468</v>
+        <v>1.71813837760252</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.436835790537021</v>
@@ -21951,7 +21903,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.759593258272558</v>
+        <v>1.734148312955273</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.584532652417352</v>
@@ -22040,7 +21992,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.766185543611445</v>
+        <v>1.738013859142688</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.383849105101649</v>
@@ -22129,7 +22081,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.785679056019336</v>
+        <v>1.757027408367207</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.59161875462664</v>
@@ -22218,7 +22170,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.801060200038327</v>
+        <v>1.772931888881205</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.623440493986119</v>
@@ -22307,7 +22259,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.812345910225216</v>
+        <v>1.782694469704272</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.522167187097079</v>
@@ -22396,7 +22348,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.814104888800677</v>
+        <v>1.787942422588852</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.549052918515286</v>
@@ -22485,7 +22437,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.818664349629618</v>
+        <v>1.792458111215593</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.87987014010749</v>
@@ -22574,7 +22526,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.819342213727025</v>
+        <v>1.798538550963763</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.495225990773199</v>
@@ -22663,7 +22615,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.830694758809568</v>
+        <v>1.812302231397865</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.747242798393608</v>
@@ -22752,7 +22704,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.829014774922135</v>
+        <v>1.817580671934657</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.872833266189236</v>
@@ -22841,7 +22793,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.828531656685311</v>
+        <v>1.822976584526526</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.641193371399363</v>
@@ -23127,7 +23079,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.50954951833841</v>
+        <v>1.542668901694049</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.365645987979043</v>
@@ -23216,7 +23168,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.515411970534508</v>
+        <v>1.550161458145845</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.401171211131667</v>
@@ -23305,7 +23257,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.570919310842587</v>
+        <v>1.5974866844561</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.300049246700945</v>
@@ -23394,7 +23346,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573373151576378</v>
+        <v>1.597473889087412</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.492777760535954</v>
@@ -23483,7 +23435,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.577688365084887</v>
+        <v>1.598973201249855</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.535783926250045</v>
@@ -23572,7 +23524,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.580770884390897</v>
+        <v>1.601787437723772</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.404165625770178</v>
@@ -23661,7 +23613,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.593977775916036</v>
+        <v>1.613679699403138</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.480924821461356</v>
@@ -23750,7 +23702,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.591155374366565</v>
+        <v>1.612360599159097</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.419991530392463</v>
@@ -23839,7 +23791,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.612383182324513</v>
+        <v>1.629214881496468</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.484841920472893</v>
@@ -23928,7 +23880,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.618091962187559</v>
+        <v>1.64223204285014</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.526968053311047</v>
@@ -24017,7 +23969,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.650107705440865</v>
+        <v>1.674130909904591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.483990760908609</v>
@@ -24106,7 +24058,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.67864985247761</v>
+        <v>1.701847646787283</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.521681438158823</v>
@@ -24195,7 +24147,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.688460825065417</v>
+        <v>1.710630014389692</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.474598873396419</v>
@@ -24284,7 +24236,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.70623299876978</v>
+        <v>1.733440164343297</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.623399230767243</v>
@@ -24373,7 +24325,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.753547565527848</v>
+        <v>1.769796444391079</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.7012846168293</v>
@@ -24462,7 +24414,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.78646656437999</v>
+        <v>1.793814673638784</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.01511359200599</v>
@@ -24551,7 +24503,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.799157608088966</v>
+        <v>1.803631654860438</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.766063313521749</v>
@@ -24640,7 +24592,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.798717386254813</v>
+        <v>1.804479046503668</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.526197778258226</v>
@@ -24729,7 +24681,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.79788187797557</v>
+        <v>1.814106116590973</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.700690056099574</v>
@@ -24818,7 +24770,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.783187304468992</v>
+        <v>1.799042465338039</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.328107864615655</v>
@@ -24907,7 +24859,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.735975124978955</v>
+        <v>1.761749346591673</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.949463377561651</v>
@@ -24996,7 +24948,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.70655183531625</v>
+        <v>1.731081152391031</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.972530207236621</v>
@@ -25085,7 +25037,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.695638714390793</v>
+        <v>1.723053689819055</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.95370948689452</v>
@@ -25174,7 +25126,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.704106026525964</v>
+        <v>1.733466046059868</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.013084200476624</v>
@@ -25263,7 +25215,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.695659499361317</v>
+        <v>1.726468181478934</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.068606070758795</v>
@@ -25352,7 +25304,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.698702741353911</v>
+        <v>1.729039728601828</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.018840496807075</v>
@@ -25441,7 +25393,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.703573502476637</v>
+        <v>1.734761823361035</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.11005102651835</v>
@@ -25530,7 +25482,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.71317513152692</v>
+        <v>1.74646092994771</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.081768353852871</v>
@@ -25619,7 +25571,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.708788151891104</v>
+        <v>1.744429838876167</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.080056199292162</v>
@@ -25708,7 +25660,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.712266002128239</v>
+        <v>1.745369879867592</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.306388636526867</v>
@@ -25797,7 +25749,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.712879752138632</v>
+        <v>1.75116800580395</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.198854498680346</v>
@@ -25886,7 +25838,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.713204368942515</v>
+        <v>1.753090820721684</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.348445746990695</v>
@@ -25975,7 +25927,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.726974908909356</v>
+        <v>1.765487518178219</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.075206576271259</v>
@@ -26064,7 +26016,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.740462752330586</v>
+        <v>1.775785682069684</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.282729972538696</v>
@@ -26153,7 +26105,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.770139630547283</v>
+        <v>1.804767966879393</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.269168548624461</v>
@@ -26242,7 +26194,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.820699405767131</v>
+        <v>1.848667731792587</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.859492449592237</v>
@@ -26331,7 +26283,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.842194835549847</v>
+        <v>1.872057308018381</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.228502782983259</v>
@@ -26420,7 +26372,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.854548336274082</v>
+        <v>1.884511721963283</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.996777981798035</v>
@@ -26509,7 +26461,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.86917183455544</v>
+        <v>1.898483819188139</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.298743543499161</v>
@@ -26598,7 +26550,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.892969987071457</v>
+        <v>1.918734586960344</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.980735748892575</v>
@@ -26687,7 +26639,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.892582364803429</v>
+        <v>1.916990860951491</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.003108022619855</v>
@@ -26776,7 +26728,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.90690126329636</v>
+        <v>1.929578864382319</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.125603469048611</v>
@@ -26865,7 +26817,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.918064348137275</v>
+        <v>1.93820894987526</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.136674282491194</v>
@@ -26954,7 +26906,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.929878743012833</v>
+        <v>1.946371065621536</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.904279129626048</v>
@@ -27043,7 +26995,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.943818439162568</v>
+        <v>1.960715997812726</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>5.154505080410592</v>
@@ -27132,7 +27084,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.946463818106145</v>
+        <v>1.964867708934085</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>5.218697917636064</v>
@@ -27221,7 +27173,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.955247032266712</v>
+        <v>1.972997061442628</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>5.233689722219448</v>
@@ -27310,7 +27262,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.955294359130986</v>
+        <v>1.9716440487564</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>5.344270221311341</v>
@@ -27399,7 +27351,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.956034855151514</v>
+        <v>1.971764725590176</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>5.724232064167587</v>
@@ -27488,7 +27440,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.956538204085334</v>
+        <v>1.973263863137093</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>5.024820975977778</v>
@@ -27577,7 +27529,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.960040869360884</v>
+        <v>1.973557051253629</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>5.418778496091261</v>
@@ -27863,7 +27815,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.208295170844117</v>
+        <v>1.181216059594913</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.347075129095917</v>
@@ -27952,7 +27904,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.213397393917307</v>
+        <v>1.182646345134454</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.23268588582539</v>
@@ -28041,7 +27993,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.210582403935435</v>
+        <v>1.188002627102617</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.109492281389489</v>
@@ -28130,7 +28082,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.218769661875838</v>
+        <v>1.198283102614783</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.346474707949414</v>
@@ -28219,7 +28171,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.220004545533516</v>
+        <v>1.199799458675879</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.186717997486265</v>
@@ -28308,7 +28260,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.219123004851336</v>
+        <v>1.19869069191969</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.209375908972142</v>
@@ -28397,7 +28349,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.229803296644611</v>
+        <v>1.209261443722</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.175418601382205</v>
@@ -28486,7 +28438,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.231115188779976</v>
+        <v>1.211568546404494</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.340367256634486</v>
@@ -28575,7 +28527,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.234606462630266</v>
+        <v>1.21214797484346</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.171622399070513</v>
@@ -28664,7 +28616,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.245936272332373</v>
+        <v>1.225480739990935</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.135802274591969</v>
@@ -28753,7 +28705,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.269437871191946</v>
+        <v>1.252979300936068</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.159055308084177</v>
@@ -28842,7 +28794,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.273299658943202</v>
+        <v>1.255265980690641</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.215363967459086</v>
@@ -28931,7 +28883,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.273874840066506</v>
+        <v>1.2530281982786</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.244112572688717</v>
@@ -29020,7 +28972,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.270309329238419</v>
+        <v>1.252377897424918</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.183376313823872</v>
@@ -29109,7 +29061,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.270799514374026</v>
+        <v>1.250923505271863</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.1795219652419</v>
@@ -29198,7 +29150,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.291274592021684</v>
+        <v>1.273483661901109</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.136665054702723</v>
@@ -29287,7 +29239,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.31545844201915</v>
+        <v>1.296549569758434</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.184001369588728</v>
@@ -29376,7 +29328,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.33667198756514</v>
+        <v>1.320470490246201</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.296192713627378</v>
@@ -29465,7 +29417,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.359139513025031</v>
+        <v>1.338642096933468</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.141015529656621</v>
@@ -29554,7 +29506,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.374207254234286</v>
+        <v>1.356890848415044</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.043945209101613</v>
@@ -29643,7 +29595,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.393884030551046</v>
+        <v>1.379014993084261</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.140873451411105</v>
@@ -29732,7 +29684,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.398346946329193</v>
+        <v>1.382625737834111</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.101142026538269</v>
@@ -29821,7 +29773,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.41034415216608</v>
+        <v>1.397391710565122</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.324793982335879</v>
@@ -29910,7 +29862,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.417539875546701</v>
+        <v>1.409194225515318</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.254881383450865</v>
@@ -29999,7 +29951,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.413921277559108</v>
+        <v>1.405226854604296</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.216989598695699</v>
@@ -30088,7 +30040,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.41831677732818</v>
+        <v>1.413248357481414</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.192203790091697</v>
@@ -30177,7 +30129,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.440364768375733</v>
+        <v>1.437891800494345</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.185352115595161</v>
@@ -30266,7 +30218,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.471967254740991</v>
+        <v>1.471919341201523</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.251927090210397</v>
@@ -30355,7 +30307,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.472604811312099</v>
+        <v>1.473046840447991</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.362545971807109</v>
@@ -30444,7 +30396,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.499177538209058</v>
+        <v>1.498349629655146</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.347980253352923</v>
@@ -30533,7 +30485,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.476265198460549</v>
+        <v>1.474758043007198</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.379562330032682</v>
@@ -30622,7 +30574,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.470939477690787</v>
+        <v>1.463854024814898</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.283250820146861</v>
@@ -30711,7 +30663,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.459972572216702</v>
+        <v>1.45976807570779</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.316321530430467</v>
@@ -30800,7 +30752,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.474209636711599</v>
+        <v>1.477547394415483</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.297835130363439</v>
@@ -30889,7 +30841,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.492448299428537</v>
+        <v>1.498794905153136</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.419127291829678</v>
@@ -30978,7 +30930,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.523151957468667</v>
+        <v>1.536474723265784</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.354404961215515</v>
@@ -31067,7 +31019,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.54733046077363</v>
+        <v>1.566286932337231</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.328523282282806</v>
@@ -31156,7 +31108,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568519997733793</v>
+        <v>1.593634664122678</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.306972678650678</v>
@@ -31245,7 +31197,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.584445395777725</v>
+        <v>1.611873112487274</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.437838500203931</v>
@@ -31334,7 +31286,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605281027761096</v>
+        <v>1.632938678309077</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.444108239984452</v>
@@ -31423,7 +31375,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.613765794220291</v>
+        <v>1.641160058325084</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.458850399466894</v>
@@ -31512,7 +31464,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624818563340019</v>
+        <v>1.651665746350054</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.638071018227631</v>
@@ -31601,7 +31553,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.640096714049382</v>
+        <v>1.666718791336382</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.44904108564679</v>
@@ -31690,7 +31642,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.673867422210545</v>
+        <v>1.702276486697846</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.414705451254676</v>
@@ -31779,7 +31731,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.687756292731531</v>
+        <v>1.718075028050702</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.619698654191589</v>
@@ -31868,7 +31820,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.730537934573635</v>
+        <v>1.76247273331323</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.43339396583046</v>
@@ -31957,7 +31909,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.746159856778736</v>
+        <v>1.768523256014498</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.705104139549531</v>
@@ -32046,7 +31998,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.726787009848386</v>
+        <v>1.759793228022701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.824554211767902</v>
@@ -32135,7 +32087,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.732581247521663</v>
+        <v>1.766320398949259</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.933883120079773</v>
@@ -32224,7 +32176,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.735362380035973</v>
+        <v>1.772435947885304</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.188062194137986</v>
@@ -32313,7 +32265,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.74556610507742</v>
+        <v>1.771422711843616</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.831851750672268</v>
